--- a/4.Analysis/Data/raw/day2/phase_008/select_day2_phase_008.xlsx
+++ b/4.Analysis/Data/raw/day2/phase_008/select_day2_phase_008.xlsx
@@ -1,107 +1,109 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="24750" windowHeight="10430"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
-  <si>
-    <t xml:space="preserve">USERID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Num</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subject.Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time_day2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source.Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Node</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever_join_similar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever_SRET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever_AlT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever_ques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Env_Q2_item4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">join_interval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">going_normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">full_screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exit_fullScreen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what_problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">distrub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">when_disturb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feedbackm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eligible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moneny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paid_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ParticipantID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="171">
+  <si>
+    <t>USERID</t>
+  </si>
+  <si>
+    <t>Num</t>
+  </si>
+  <si>
+    <t>Subject.Name</t>
+  </si>
+  <si>
+    <t>Time_day2</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Source.Details</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>Node</t>
+  </si>
+  <si>
+    <t>ever_join_similar</t>
+  </si>
+  <si>
+    <t>ever_SRET</t>
+  </si>
+  <si>
+    <t>ever_AlT</t>
+  </si>
+  <si>
+    <t>ever_ques</t>
+  </si>
+  <si>
+    <t>Env_Q2_item4</t>
+  </si>
+  <si>
+    <t>join_interval</t>
+  </si>
+  <si>
+    <t>going_normal</t>
+  </si>
+  <si>
+    <t>full_screen</t>
+  </si>
+  <si>
+    <t>exit_fullScreen</t>
+  </si>
+  <si>
+    <t>what_problem</t>
+  </si>
+  <si>
+    <t>distrub</t>
+  </si>
+  <si>
+    <t>when_disturb</t>
+  </si>
+  <si>
+    <t>feedbackm</t>
+  </si>
+  <si>
+    <t>aim</t>
+  </si>
+  <si>
+    <t>Eligible</t>
+  </si>
+  <si>
+    <t>Moneny</t>
+  </si>
+  <si>
+    <t>Paid_date</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ParticipantID</t>
   </si>
   <si>
     <t xml:space="preserve">	598867196789129216</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
+    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">	这是一个小天才</t>
@@ -110,43 +112,43 @@
     <t xml:space="preserve">	2023-12-25 11:57:48</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时15分57秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">直接访问</t>
-  </si>
-  <si>
-    <t xml:space="preserve">219.151.28.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">问题反馈</t>
-  </si>
-  <si>
-    <t xml:space="preserve">否</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">从无</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G.从无</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.一切正常</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.我没有受到任何干扰</t>
+    <t>1小时15分57秒</t>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>直接访问</t>
+  </si>
+  <si>
+    <t>219.151.28.79</t>
+  </si>
+  <si>
+    <t>问题反馈</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>-888</t>
+  </si>
+  <si>
+    <t>从无</t>
+  </si>
+  <si>
+    <t>G.从无</t>
+  </si>
+  <si>
+    <t>A.一切正常</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>-999</t>
+  </si>
+  <si>
+    <t>A.我没有受到任何干扰</t>
   </si>
   <si>
     <t xml:space="preserve">无	</t>
@@ -155,22 +157,22 @@
     <t xml:space="preserve">对是非的判断程度	</t>
   </si>
   <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_008_subj_11</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>12.27</t>
+  </si>
+  <si>
+    <t>phase_008_subj_11</t>
   </si>
   <si>
     <t xml:space="preserve">	598892418162491392</t>
   </si>
   <si>
-    <t xml:space="preserve">11</t>
+    <t>11</t>
   </si>
   <si>
     <t xml:space="preserve">	bba</t>
@@ -179,22 +181,22 @@
     <t xml:space="preserve">	2023-12-25 21:45:40</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时16分28秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.155.12.173</t>
+    <t>1小时16分28秒</t>
+  </si>
+  <si>
+    <t>36.155.12.173</t>
   </si>
   <si>
     <t xml:space="preserve">研究人与他人的相处有什么不同	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_008_subj_17</t>
+    <t>phase_008_subj_17</t>
   </si>
   <si>
     <t xml:space="preserve">	602312870918619136</t>
   </si>
   <si>
-    <t xml:space="preserve">3</t>
+    <t>3</t>
   </si>
   <si>
     <t xml:space="preserve">	小怪兽</t>
@@ -203,10 +205,10 @@
     <t xml:space="preserve">	2023-12-25 15:32:35</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时18分33秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.155.12.170</t>
+    <t>1小时18分33秒</t>
+  </si>
+  <si>
+    <t>36.155.12.170</t>
   </si>
   <si>
     <t xml:space="preserve">没有	</t>
@@ -215,13 +217,13 @@
     <t xml:space="preserve">探究人对他人的看法	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_008_subj_19</t>
+    <t>phase_008_subj_19</t>
   </si>
   <si>
     <t xml:space="preserve">	612753157184815104</t>
   </si>
   <si>
-    <t xml:space="preserve">9</t>
+    <t>9</t>
   </si>
   <si>
     <t xml:space="preserve">	小甜喵</t>
@@ -230,22 +232,22 @@
     <t xml:space="preserve">	2023-12-25 20:57:53</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时13分55秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.84.232.79</t>
+    <t>1小时13分55秒</t>
+  </si>
+  <si>
+    <t>42.84.232.79</t>
   </si>
   <si>
     <t xml:space="preserve">不知道	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_008_subj_15</t>
+    <t>phase_008_subj_15</t>
   </si>
   <si>
     <t xml:space="preserve">	618773298611748864</t>
   </si>
   <si>
-    <t xml:space="preserve">6</t>
+    <t>6</t>
   </si>
   <si>
     <t xml:space="preserve">	袁某人</t>
@@ -254,10 +256,10 @@
     <t xml:space="preserve">	2023-12-25 18:21:26</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时12分27秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119.145.254.202</t>
+    <t>1小时12分27秒</t>
+  </si>
+  <si>
+    <t>119.145.254.202</t>
   </si>
   <si>
     <t xml:space="preserve">实验有趣	</t>
@@ -266,13 +268,13 @@
     <t xml:space="preserve">考验心理	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_008_subj_8</t>
+    <t>phase_008_subj_8</t>
   </si>
   <si>
     <t xml:space="preserve">	618876128202850304</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
+    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">	熊腾龙</t>
@@ -281,10 +283,10 @@
     <t xml:space="preserve">	2023-12-25 13:25:46</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时19分38秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.144.170.95</t>
+    <t>1小时19分38秒</t>
+  </si>
+  <si>
+    <t>39.144.170.95</t>
   </si>
   <si>
     <t xml:space="preserve">这次实验感觉困难加剧了	</t>
@@ -293,13 +295,13 @@
     <t xml:space="preserve">考验记忆力	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_008_subj_14</t>
+    <t>phase_008_subj_14</t>
   </si>
   <si>
     <t xml:space="preserve">	656564688670162944</t>
   </si>
   <si>
-    <t xml:space="preserve">7</t>
+    <t>7</t>
   </si>
   <si>
     <t xml:space="preserve">	波纹</t>
@@ -308,22 +310,22 @@
     <t xml:space="preserve">	2023-12-25 18:53:29</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时23分39秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.7.106.60</t>
+    <t>1小时23分39秒</t>
+  </si>
+  <si>
+    <t>111.7.106.60</t>
   </si>
   <si>
     <t xml:space="preserve">我认为目的是想了解人对自我的认知	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_008_subj_1</t>
+    <t>phase_008_subj_1</t>
   </si>
   <si>
     <t xml:space="preserve">	738081261448597505</t>
   </si>
   <si>
-    <t xml:space="preserve">5</t>
+    <t>5</t>
   </si>
   <si>
     <t xml:space="preserve">	福气</t>
@@ -332,22 +334,22 @@
     <t xml:space="preserve">	2023-12-25 17:14:12</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时15分13秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.189.20.55</t>
+    <t>1小时15分13秒</t>
+  </si>
+  <si>
+    <t>61.189.20.55</t>
   </si>
   <si>
     <t xml:space="preserve">了解人与人之间的关联怎么样	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_008_subj_12</t>
+    <t>phase_008_subj_12</t>
   </si>
   <si>
     <t xml:space="preserve">	757367705316888578</t>
   </si>
   <si>
-    <t xml:space="preserve">13</t>
+    <t>13</t>
   </si>
   <si>
     <t xml:space="preserve">	用户34158</t>
@@ -356,22 +358,22 @@
     <t xml:space="preserve">	2023-12-25 21:54:44</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时3分38秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.27.25.86</t>
+    <t>1小时3分38秒</t>
+  </si>
+  <si>
+    <t>103.27.25.86</t>
   </si>
   <si>
     <t xml:space="preserve">有点太长了。会造成视觉疲劳。	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_008_subj_2</t>
+    <t>phase_008_subj_2</t>
   </si>
   <si>
     <t xml:space="preserve">	768533085213167618</t>
   </si>
   <si>
-    <t xml:space="preserve">4</t>
+    <t>4</t>
   </si>
   <si>
     <t xml:space="preserve">	用户38213</t>
@@ -380,22 +382,22 @@
     <t xml:space="preserve">	2023-12-25 16:20:53</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时32分15秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">211.90.247.209</t>
+    <t>1小时32分15秒</t>
+  </si>
+  <si>
+    <t>211.90.247.209</t>
   </si>
   <si>
     <t xml:space="preserve">对事物的练习和掌握情况	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_008_subj_13</t>
+    <t>phase_008_subj_13</t>
   </si>
   <si>
     <t xml:space="preserve">	774615163172294657</t>
   </si>
   <si>
-    <t xml:space="preserve">12</t>
+    <t>12</t>
   </si>
   <si>
     <t xml:space="preserve">	下弦月</t>
@@ -404,19 +406,19 @@
     <t xml:space="preserve">	2023-12-25 22:04:16</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时14分1秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">183.230.199.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">词汇评估（评估—再认）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">图形匹配（图形—人称词标签）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.一周内</t>
+    <t>1小时14分1秒</t>
+  </si>
+  <si>
+    <t>183.230.199.80</t>
+  </si>
+  <si>
+    <t>词汇评估（评估—再认）</t>
+  </si>
+  <si>
+    <t>图形匹配（图形—人称词标签）</t>
+  </si>
+  <si>
+    <t>A.一周内</t>
   </si>
   <si>
     <t xml:space="preserve">正确错误的反馈有点晃眼睛	</t>
@@ -425,7 +427,7 @@
     <t xml:space="preserve">考察即时记忆力	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_008_subj_16</t>
+    <t>phase_008_subj_16</t>
   </si>
   <si>
     <t xml:space="preserve">	776480023275376642</t>
@@ -437,22 +439,22 @@
     <t xml:space="preserve">	2023-12-25 21:27:50</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时35分28秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">183.197.196.216</t>
+    <t>1小时35分28秒</t>
+  </si>
+  <si>
+    <t>183.197.196.216</t>
   </si>
   <si>
     <t xml:space="preserve">测试注意力和反应能力，并调查对自己性格的看法	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_008_subj_18</t>
+    <t>phase_008_subj_18</t>
   </si>
   <si>
     <t xml:space="preserve">	779745842755276801</t>
   </si>
   <si>
-    <t xml:space="preserve">14</t>
+    <t>14</t>
   </si>
   <si>
     <t xml:space="preserve">	啵啵啵啵</t>
@@ -461,22 +463,22 @@
     <t xml:space="preserve">	2023-12-26 12:10:10</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时14分52秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.14.47.218</t>
+    <t>1小时14分52秒</t>
+  </si>
+  <si>
+    <t>111.14.47.218</t>
   </si>
   <si>
     <t xml:space="preserve">探究我是否会在练习中提高反应速度以及展开回忆	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_008_subj_20</t>
+    <t>phase_008_subj_20</t>
   </si>
   <si>
     <t xml:space="preserve">	786709021557137410</t>
   </si>
   <si>
-    <t xml:space="preserve">15</t>
+    <t>15</t>
   </si>
   <si>
     <t xml:space="preserve">	用户41323</t>
@@ -485,41 +487,469 @@
     <t xml:space="preserve">	2023-12-26 22:21:34</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时11分47秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171.113.79.143</t>
+    <t>1小时11分47秒</t>
+  </si>
+  <si>
+    <t>171.113.79.143</t>
   </si>
   <si>
     <t xml:space="preserve">大脑反应能力与记忆偏差	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_008_subj_10</t>
+    <t>phase_008_subj_10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>783896727882305537</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>19</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Sanchez</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>phase_008_subj_7</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">	773271155669995521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	摩卡模卡</t>
+  </si>
+  <si>
+    <t>phase_008_subj_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	777148633652137985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	彩彩云</t>
+  </si>
+  <si>
+    <t>phase_008_subj_6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -527,17 +957,528 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -814,19 +1755,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AB18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="27" max="27" width="20.6363636363636" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -912,7 +1858,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -994,11 +1940,11 @@
       <c r="AA2" t="s">
         <v>50</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>361</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -1080,11 +2026,11 @@
       <c r="AA3" t="s">
         <v>58</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3">
         <v>590</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -1166,11 +2112,11 @@
       <c r="AA4" t="s">
         <v>67</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4">
         <v>630</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -1252,11 +2198,11 @@
       <c r="AA5" t="s">
         <v>75</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5">
         <v>481</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -1338,11 +2284,11 @@
       <c r="AA6" t="s">
         <v>84</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6">
         <v>273</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -1424,11 +2370,11 @@
       <c r="AA7" t="s">
         <v>93</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7">
         <v>470</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -1510,11 +2456,11 @@
       <c r="AA8" t="s">
         <v>101</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8">
         <v>106</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -1596,11 +2542,11 @@
       <c r="AA9" t="s">
         <v>109</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB9">
         <v>405</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:28">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -1682,11 +2628,11 @@
       <c r="AA10" t="s">
         <v>117</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AB10">
         <v>139</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -1768,11 +2714,11 @@
       <c r="AA11" t="s">
         <v>125</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB11">
         <v>417</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:28">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -1854,11 +2800,11 @@
       <c r="AA12" t="s">
         <v>137</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB12">
         <v>539</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:28">
       <c r="A13" t="s">
         <v>138</v>
       </c>
@@ -1940,11 +2886,11 @@
       <c r="AA13" t="s">
         <v>144</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AB13">
         <v>618</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:28">
       <c r="A14" t="s">
         <v>145</v>
       </c>
@@ -2026,11 +2972,11 @@
       <c r="AA14" t="s">
         <v>152</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14">
         <v>651</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:28">
       <c r="A15" t="s">
         <v>153</v>
       </c>
@@ -2112,12 +3058,103 @@
       <c r="AA15" t="s">
         <v>160</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15">
         <v>336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB17">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB18">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/4.Analysis/Data/raw/day2/phase_008/select_day2_phase_008.xlsx
+++ b/4.Analysis/Data/raw/day2/phase_008/select_day2_phase_008.xlsx
@@ -1,109 +1,107 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10430"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="171">
-  <si>
-    <t>USERID</t>
-  </si>
-  <si>
-    <t>Num</t>
-  </si>
-  <si>
-    <t>Subject.Name</t>
-  </si>
-  <si>
-    <t>Time_day2</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Source.Details</t>
-  </si>
-  <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>Node</t>
-  </si>
-  <si>
-    <t>ever_join_similar</t>
-  </si>
-  <si>
-    <t>ever_SRET</t>
-  </si>
-  <si>
-    <t>ever_AlT</t>
-  </si>
-  <si>
-    <t>ever_ques</t>
-  </si>
-  <si>
-    <t>Env_Q2_item4</t>
-  </si>
-  <si>
-    <t>join_interval</t>
-  </si>
-  <si>
-    <t>going_normal</t>
-  </si>
-  <si>
-    <t>full_screen</t>
-  </si>
-  <si>
-    <t>exit_fullScreen</t>
-  </si>
-  <si>
-    <t>what_problem</t>
-  </si>
-  <si>
-    <t>distrub</t>
-  </si>
-  <si>
-    <t>when_disturb</t>
-  </si>
-  <si>
-    <t>feedbackm</t>
-  </si>
-  <si>
-    <t>aim</t>
-  </si>
-  <si>
-    <t>Eligible</t>
-  </si>
-  <si>
-    <t>Moneny</t>
-  </si>
-  <si>
-    <t>Paid_date</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>ParticipantID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
+  <si>
+    <t xml:space="preserve">USERID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subject.Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_day2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source.Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ever_join_similar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ever_SRET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ever_AlT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ever_ques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Env_Q2_item4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">join_interval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">going_normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">full_screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exit_fullScreen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what_problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distrub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when_disturb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feedbackm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eligible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moneny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ParticipantID</t>
   </si>
   <si>
     <t xml:space="preserve">	598867196789129216</t>
   </si>
   <si>
-    <t>1</t>
+    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">	这是一个小天才</t>
@@ -112,43 +110,43 @@
     <t xml:space="preserve">	2023-12-25 11:57:48</t>
   </si>
   <si>
-    <t>1小时15分57秒</t>
-  </si>
-  <si>
-    <t>WEB</t>
-  </si>
-  <si>
-    <t>直接访问</t>
-  </si>
-  <si>
-    <t>219.151.28.79</t>
-  </si>
-  <si>
-    <t>问题反馈</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>-888</t>
-  </si>
-  <si>
-    <t>从无</t>
-  </si>
-  <si>
-    <t>G.从无</t>
-  </si>
-  <si>
-    <t>A.一切正常</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>-999</t>
-  </si>
-  <si>
-    <t>A.我没有受到任何干扰</t>
+    <t xml:space="preserve">1小时15分57秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">直接访问</t>
+  </si>
+  <si>
+    <t xml:space="preserve">219.151.28.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">问题反馈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">否</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">从无</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G.从无</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.一切正常</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.我没有受到任何干扰</t>
   </si>
   <si>
     <t xml:space="preserve">无	</t>
@@ -157,22 +155,22 @@
     <t xml:space="preserve">对是非的判断程度	</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>12.27</t>
-  </si>
-  <si>
-    <t>phase_008_subj_11</t>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phase_008_subj_11</t>
   </si>
   <si>
     <t xml:space="preserve">	598892418162491392</t>
   </si>
   <si>
-    <t>11</t>
+    <t xml:space="preserve">11</t>
   </si>
   <si>
     <t xml:space="preserve">	bba</t>
@@ -181,22 +179,22 @@
     <t xml:space="preserve">	2023-12-25 21:45:40</t>
   </si>
   <si>
-    <t>1小时16分28秒</t>
-  </si>
-  <si>
-    <t>36.155.12.173</t>
+    <t xml:space="preserve">1小时16分28秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.155.12.173</t>
   </si>
   <si>
     <t xml:space="preserve">研究人与他人的相处有什么不同	</t>
   </si>
   <si>
-    <t>phase_008_subj_17</t>
+    <t xml:space="preserve">phase_008_subj_17</t>
   </si>
   <si>
     <t xml:space="preserve">	602312870918619136</t>
   </si>
   <si>
-    <t>3</t>
+    <t xml:space="preserve">3</t>
   </si>
   <si>
     <t xml:space="preserve">	小怪兽</t>
@@ -205,10 +203,10 @@
     <t xml:space="preserve">	2023-12-25 15:32:35</t>
   </si>
   <si>
-    <t>1小时18分33秒</t>
-  </si>
-  <si>
-    <t>36.155.12.170</t>
+    <t xml:space="preserve">1小时18分33秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.155.12.170</t>
   </si>
   <si>
     <t xml:space="preserve">没有	</t>
@@ -217,13 +215,13 @@
     <t xml:space="preserve">探究人对他人的看法	</t>
   </si>
   <si>
-    <t>phase_008_subj_19</t>
+    <t xml:space="preserve">phase_008_subj_19</t>
   </si>
   <si>
     <t xml:space="preserve">	612753157184815104</t>
   </si>
   <si>
-    <t>9</t>
+    <t xml:space="preserve">9</t>
   </si>
   <si>
     <t xml:space="preserve">	小甜喵</t>
@@ -232,22 +230,22 @@
     <t xml:space="preserve">	2023-12-25 20:57:53</t>
   </si>
   <si>
-    <t>1小时13分55秒</t>
-  </si>
-  <si>
-    <t>42.84.232.79</t>
+    <t xml:space="preserve">1小时13分55秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.84.232.79</t>
   </si>
   <si>
     <t xml:space="preserve">不知道	</t>
   </si>
   <si>
-    <t>phase_008_subj_15</t>
+    <t xml:space="preserve">phase_008_subj_15</t>
   </si>
   <si>
     <t xml:space="preserve">	618773298611748864</t>
   </si>
   <si>
-    <t>6</t>
+    <t xml:space="preserve">6</t>
   </si>
   <si>
     <t xml:space="preserve">	袁某人</t>
@@ -256,10 +254,10 @@
     <t xml:space="preserve">	2023-12-25 18:21:26</t>
   </si>
   <si>
-    <t>1小时12分27秒</t>
-  </si>
-  <si>
-    <t>119.145.254.202</t>
+    <t xml:space="preserve">1小时12分27秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.145.254.202</t>
   </si>
   <si>
     <t xml:space="preserve">实验有趣	</t>
@@ -268,13 +266,13 @@
     <t xml:space="preserve">考验心理	</t>
   </si>
   <si>
-    <t>phase_008_subj_8</t>
+    <t xml:space="preserve">phase_008_subj_8</t>
   </si>
   <si>
     <t xml:space="preserve">	618876128202850304</t>
   </si>
   <si>
-    <t>2</t>
+    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">	熊腾龙</t>
@@ -283,10 +281,10 @@
     <t xml:space="preserve">	2023-12-25 13:25:46</t>
   </si>
   <si>
-    <t>1小时19分38秒</t>
-  </si>
-  <si>
-    <t>39.144.170.95</t>
+    <t xml:space="preserve">1小时19分38秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.144.170.95</t>
   </si>
   <si>
     <t xml:space="preserve">这次实验感觉困难加剧了	</t>
@@ -295,13 +293,13 @@
     <t xml:space="preserve">考验记忆力	</t>
   </si>
   <si>
-    <t>phase_008_subj_14</t>
+    <t xml:space="preserve">phase_008_subj_14</t>
   </si>
   <si>
     <t xml:space="preserve">	656564688670162944</t>
   </si>
   <si>
-    <t>7</t>
+    <t xml:space="preserve">7</t>
   </si>
   <si>
     <t xml:space="preserve">	波纹</t>
@@ -310,22 +308,22 @@
     <t xml:space="preserve">	2023-12-25 18:53:29</t>
   </si>
   <si>
-    <t>1小时23分39秒</t>
-  </si>
-  <si>
-    <t>111.7.106.60</t>
+    <t xml:space="preserve">1小时23分39秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.7.106.60</t>
   </si>
   <si>
     <t xml:space="preserve">我认为目的是想了解人对自我的认知	</t>
   </si>
   <si>
-    <t>phase_008_subj_1</t>
+    <t xml:space="preserve">phase_008_subj_1</t>
   </si>
   <si>
     <t xml:space="preserve">	738081261448597505</t>
   </si>
   <si>
-    <t>5</t>
+    <t xml:space="preserve">5</t>
   </si>
   <si>
     <t xml:space="preserve">	福气</t>
@@ -334,22 +332,22 @@
     <t xml:space="preserve">	2023-12-25 17:14:12</t>
   </si>
   <si>
-    <t>1小时15分13秒</t>
-  </si>
-  <si>
-    <t>61.189.20.55</t>
+    <t xml:space="preserve">1小时15分13秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.189.20.55</t>
   </si>
   <si>
     <t xml:space="preserve">了解人与人之间的关联怎么样	</t>
   </si>
   <si>
-    <t>phase_008_subj_12</t>
+    <t xml:space="preserve">phase_008_subj_12</t>
   </si>
   <si>
     <t xml:space="preserve">	757367705316888578</t>
   </si>
   <si>
-    <t>13</t>
+    <t xml:space="preserve">13</t>
   </si>
   <si>
     <t xml:space="preserve">	用户34158</t>
@@ -358,22 +356,22 @@
     <t xml:space="preserve">	2023-12-25 21:54:44</t>
   </si>
   <si>
-    <t>1小时3分38秒</t>
-  </si>
-  <si>
-    <t>103.27.25.86</t>
+    <t xml:space="preserve">1小时3分38秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.27.25.86</t>
   </si>
   <si>
     <t xml:space="preserve">有点太长了。会造成视觉疲劳。	</t>
   </si>
   <si>
-    <t>phase_008_subj_2</t>
+    <t xml:space="preserve">phase_008_subj_2</t>
   </si>
   <si>
     <t xml:space="preserve">	768533085213167618</t>
   </si>
   <si>
-    <t>4</t>
+    <t xml:space="preserve">4</t>
   </si>
   <si>
     <t xml:space="preserve">	用户38213</t>
@@ -382,22 +380,22 @@
     <t xml:space="preserve">	2023-12-25 16:20:53</t>
   </si>
   <si>
-    <t>1小时32分15秒</t>
-  </si>
-  <si>
-    <t>211.90.247.209</t>
+    <t xml:space="preserve">1小时32分15秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211.90.247.209</t>
   </si>
   <si>
     <t xml:space="preserve">对事物的练习和掌握情况	</t>
   </si>
   <si>
-    <t>phase_008_subj_13</t>
+    <t xml:space="preserve">phase_008_subj_13</t>
   </si>
   <si>
     <t xml:space="preserve">	774615163172294657</t>
   </si>
   <si>
-    <t>12</t>
+    <t xml:space="preserve">12</t>
   </si>
   <si>
     <t xml:space="preserve">	下弦月</t>
@@ -406,19 +404,19 @@
     <t xml:space="preserve">	2023-12-25 22:04:16</t>
   </si>
   <si>
-    <t>1小时14分1秒</t>
-  </si>
-  <si>
-    <t>183.230.199.80</t>
-  </si>
-  <si>
-    <t>词汇评估（评估—再认）</t>
-  </si>
-  <si>
-    <t>图形匹配（图形—人称词标签）</t>
-  </si>
-  <si>
-    <t>A.一周内</t>
+    <t xml:space="preserve">1小时14分1秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">183.230.199.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">词汇评估（评估—再认）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">图形匹配（图形—人称词标签）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.一周内</t>
   </si>
   <si>
     <t xml:space="preserve">正确错误的反馈有点晃眼睛	</t>
@@ -427,7 +425,7 @@
     <t xml:space="preserve">考察即时记忆力	</t>
   </si>
   <si>
-    <t>phase_008_subj_16</t>
+    <t xml:space="preserve">phase_008_subj_16</t>
   </si>
   <si>
     <t xml:space="preserve">	776480023275376642</t>
@@ -439,22 +437,22 @@
     <t xml:space="preserve">	2023-12-25 21:27:50</t>
   </si>
   <si>
-    <t>1小时35分28秒</t>
-  </si>
-  <si>
-    <t>183.197.196.216</t>
+    <t xml:space="preserve">1小时35分28秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">183.197.196.216</t>
   </si>
   <si>
     <t xml:space="preserve">测试注意力和反应能力，并调查对自己性格的看法	</t>
   </si>
   <si>
-    <t>phase_008_subj_18</t>
+    <t xml:space="preserve">phase_008_subj_18</t>
   </si>
   <si>
     <t xml:space="preserve">	779745842755276801</t>
   </si>
   <si>
-    <t>14</t>
+    <t xml:space="preserve">14</t>
   </si>
   <si>
     <t xml:space="preserve">	啵啵啵啵</t>
@@ -463,22 +461,22 @@
     <t xml:space="preserve">	2023-12-26 12:10:10</t>
   </si>
   <si>
-    <t>1小时14分52秒</t>
-  </si>
-  <si>
-    <t>111.14.47.218</t>
+    <t xml:space="preserve">1小时14分52秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.14.47.218</t>
   </si>
   <si>
     <t xml:space="preserve">探究我是否会在练习中提高反应速度以及展开回忆	</t>
   </si>
   <si>
-    <t>phase_008_subj_20</t>
+    <t xml:space="preserve">phase_008_subj_20</t>
   </si>
   <si>
     <t xml:space="preserve">	786709021557137410</t>
   </si>
   <si>
-    <t>15</t>
+    <t xml:space="preserve">15</t>
   </si>
   <si>
     <t xml:space="preserve">	用户41323</t>
@@ -487,469 +485,41 @@
     <t xml:space="preserve">	2023-12-26 22:21:34</t>
   </si>
   <si>
-    <t>1小时11分47秒</t>
-  </si>
-  <si>
-    <t>171.113.79.143</t>
+    <t xml:space="preserve">1小时11分47秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171.113.79.143</t>
   </si>
   <si>
     <t xml:space="preserve">大脑反应能力与记忆偏差	</t>
   </si>
   <si>
-    <t>phase_008_subj_10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>783896727882305537</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>19</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Sanchez</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>phase_008_subj_7</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">	773271155669995521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	摩卡模卡</t>
-  </si>
-  <si>
-    <t>phase_008_subj_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	777148633652137985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	彩彩云</t>
-  </si>
-  <si>
-    <t>phase_008_subj_6</t>
+    <t xml:space="preserve">phase_008_subj_10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -957,528 +527,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-  </dxfs>
-  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
-    </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
-    </tableStyle>
-  </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
@@ -1755,24 +814,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AB18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="27" max="27" width="20.6363636363636" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1858,7 +912,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1940,11 +994,11 @@
       <c r="AA2" t="s">
         <v>50</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>361</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -2026,11 +1080,11 @@
       <c r="AA3" t="s">
         <v>58</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" t="n">
         <v>590</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -2112,11 +1166,11 @@
       <c r="AA4" t="s">
         <v>67</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" t="n">
         <v>630</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -2198,11 +1252,11 @@
       <c r="AA5" t="s">
         <v>75</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" t="n">
         <v>481</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -2284,11 +1338,11 @@
       <c r="AA6" t="s">
         <v>84</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" t="n">
         <v>273</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -2370,11 +1424,11 @@
       <c r="AA7" t="s">
         <v>93</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" t="n">
         <v>470</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -2456,11 +1510,11 @@
       <c r="AA8" t="s">
         <v>101</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" t="n">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -2542,11 +1596,11 @@
       <c r="AA9" t="s">
         <v>109</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" t="n">
         <v>405</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -2628,11 +1682,11 @@
       <c r="AA10" t="s">
         <v>117</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" t="n">
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -2714,11 +1768,11 @@
       <c r="AA11" t="s">
         <v>125</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" t="n">
         <v>417</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -2800,11 +1854,11 @@
       <c r="AA12" t="s">
         <v>137</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" t="n">
         <v>539</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13">
       <c r="A13" t="s">
         <v>138</v>
       </c>
@@ -2886,11 +1940,11 @@
       <c r="AA13" t="s">
         <v>144</v>
       </c>
-      <c r="AB13">
+      <c r="AB13" t="n">
         <v>618</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14">
       <c r="A14" t="s">
         <v>145</v>
       </c>
@@ -2972,11 +2026,11 @@
       <c r="AA14" t="s">
         <v>152</v>
       </c>
-      <c r="AB14">
+      <c r="AB14" t="n">
         <v>651</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15">
       <c r="A15" t="s">
         <v>153</v>
       </c>
@@ -3058,103 +2112,12 @@
       <c r="AA15" t="s">
         <v>160</v>
       </c>
-      <c r="AB15">
+      <c r="AB15" t="n">
         <v>336</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28">
-      <c r="A16" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AB16" s="1">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28">
-      <c r="A17" t="s">
-        <v>165</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB17">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28">
-      <c r="A18" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B18">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>170</v>
-      </c>
-      <c r="AB18">
-        <v>240</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>